--- a/Sept/21 Sept Program/Workbook1.xlsx
+++ b/Sept/21 Sept Program/Workbook1.xlsx
@@ -19,22 +19,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="2">
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -57,13 +66,317 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="153">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -393,604 +706,437 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <f>10 * COS(RADIANS(A1))</f>
-        <v>9.961946980917455</v>
+        <v>9.9984769515639123</v>
       </c>
       <c r="C1">
         <f>10 * SIN(RADIANS(A1))</f>
-        <v>0.8715574274765816</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>0.17452406437283513</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B36" si="0">10 * COS(RADIANS(A2))</f>
-        <v>9.8480775301220795</v>
+        <v>9.993908270190957</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C18" si="1">10 * SIN(RADIANS(A2))</f>
+        <v>0.34899496702500971</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>9.9862953475457381</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="1"/>
+        <v>0.52335956242943837</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>9.9756405025982424</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>0.69756473744125302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>9.961946980917455</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>0.8715574274765816</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>9.9452189536827333</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>1.0452846326765348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>9.9254615164132201</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>1.2186934340514748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>9.9026806874157032</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>1.3917310096006543</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>9.8768834059513786</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>1.5643446504023086</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>9.8480775301220795</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
         <v>1.7364817766693033</v>
       </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>9.8162718344766393</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>1.9080899537654481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>9.7814760073380569</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>2.0791169081775935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>9.7437006478523518</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>2.24951054343865</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>9.7029572627599645</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>2.4192189559966772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
         <v>15</v>
       </c>
-      <c r="B3">
+      <c r="B15">
         <f t="shared" si="0"/>
         <v>9.6592582628906829</v>
       </c>
-      <c r="C3">
+      <c r="C15">
         <f t="shared" si="1"/>
         <v>2.5881904510252074</v>
       </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>9.3969262078590852</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="1"/>
-        <v>3.420201433256687</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>25</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>9.0630778703664987</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>4.2261826174069945</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>30</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>8.6602540378443873</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>4.9999999999999991</v>
-      </c>
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>35</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>8.1915204428899173</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>5.7357643635104605</v>
-      </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>40</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>7.6604444311897799</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>6.4278760968653925</v>
-      </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>45</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>7.0710678118654755</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>7.0710678118654746</v>
-      </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>50</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>6.4278760968653934</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>7.6604444311897799</v>
-      </c>
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>55</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>5.7357643635104614</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>8.1915204428899173</v>
-      </c>
-      <c r="D11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>60</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000009</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
-        <v>8.6602540378443855</v>
-      </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>65</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>4.2261826174069945</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>9.0630778703664987</v>
-      </c>
-      <c r="D13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>70</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>3.4202014332566884</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
-        <v>9.3969262078590834</v>
-      </c>
-      <c r="D14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>75</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>2.5881904510252074</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
-        <v>9.6592582628906829</v>
-      </c>
-      <c r="D15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>1.7364817766693041</v>
+        <v>9.6126169593831889</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>9.8480775301220795</v>
-      </c>
-      <c r="D16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>2.7563735581699915</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>0.87155742747658138</v>
+        <v>9.5630475596303537</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>9.961946980917455</v>
-      </c>
-      <c r="D17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>2.9237170472273677</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>6.1257422745431001E-16</v>
+        <v>9.5105651629515346</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>3.0901699437494741</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>-0.87155742747658238</v>
+        <v>9.4551857559931687</v>
       </c>
       <c r="C19">
         <f t="shared" ref="C19:C36" si="2">10 * SIN(RADIANS(A19))</f>
-        <v>9.961946980917455</v>
-      </c>
-      <c r="D19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>3.255681544571567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>-1.736481776669303</v>
+        <v>9.3969262078590852</v>
       </c>
       <c r="C20">
         <f t="shared" si="2"/>
-        <v>9.8480775301220795</v>
-      </c>
-      <c r="D20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>105</v>
-      </c>
+        <v>3.420201433256687</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>-2.5881904510252083</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <f t="shared" si="2"/>
-        <v>9.6592582628906829</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>110</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>-3.420201433256687</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <f t="shared" si="2"/>
-        <v>9.3969262078590852</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>115</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>-4.2261826174069936</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <f t="shared" si="2"/>
-        <v>9.0630778703665005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>120</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>-4.9999999999999982</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <f t="shared" si="2"/>
-        <v>8.6602540378443873</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>125</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>-5.7357643635104614</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <f t="shared" si="2"/>
-        <v>8.1915204428899173</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>130</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>-6.4278760968653934</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <f t="shared" si="2"/>
-        <v>7.6604444311897799</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <v>135</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>-7.0710678118654746</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <f t="shared" si="2"/>
-        <v>7.0710678118654755</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
-        <v>140</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>-7.660444431189779</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <f t="shared" si="2"/>
-        <v>6.4278760968653952</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
-        <v>145</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>-8.1915204428899191</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <f t="shared" si="2"/>
-        <v>5.7357643635104596</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
-        <v>150</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>-8.6602540378443873</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <f t="shared" si="2"/>
-        <v>4.9999999999999991</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
-        <v>155</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>-9.0630778703664987</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <f t="shared" si="2"/>
-        <v>4.2261826174069945</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
-        <v>160</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>-9.3969262078590834</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <f t="shared" si="2"/>
-        <v>3.4202014332566888</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>165</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>-9.6592582628906811</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <f t="shared" si="2"/>
-        <v>2.5881904510252101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>170</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>-9.8480775301220795</v>
+        <v>10</v>
       </c>
       <c r="C34">
         <f t="shared" si="2"/>
-        <v>1.7364817766693028</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>175</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>-9.961946980917455</v>
+        <v>10</v>
       </c>
       <c r="C35">
         <f t="shared" si="2"/>
-        <v>0.87155742747658194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>180</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="C36">
         <f t="shared" si="2"/>
-        <v>1.22514845490862E-15</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
